--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/18_Bitlis_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/18_Bitlis_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{508FAE0C-6585-42EC-A335-861BF634C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{143AC882-2628-4399-BAAF-07E1311B0F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{C45E05FC-6E94-4090-BFDA-7552CACC9E68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{A63AF885-FEED-498C-ADD4-425611573D5A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -940,13 +940,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{09B11A4E-328D-4133-A612-C524763ED575}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C8B969EC-94F4-4B62-B74A-68AEBA0FB462}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{695E6A1B-B0E7-4FD3-AB50-3CB53632C0C3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B4699794-C2E9-41C8-8531-7D61D102B275}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7DD31E30-64AB-4AEE-A813-105F69E61EA7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A8529034-CA54-44AC-9CC8-9862638D15A6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0F63C807-2DD9-4BBD-9CC4-9FB03E099C4C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{23772654-2F2A-4DED-87F2-482FD0498822}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E83DDAE4-AD40-47EA-A998-78DA5C323E9E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{65DF236F-F196-4650-A3F7-674503034F8C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B11DAD6B-7AA9-4CDD-BBBC-CF2A22ED67D7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D25B1400-BE7E-4D4B-BD32-62F3010363CC}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{F158B182-7760-49DC-B67F-F5E002D2960D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{35CD8F0A-253D-4D84-BF79-3F482A03B056}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4CC655-F5F7-452C-BFD3-CA68003770ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A1047-1DF1-453B-AE37-C0E5AE587ABF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2577,18 +2577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E289112-AFED-42E6-963D-954A99EC56D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82136D6B-3EF8-41FC-A547-EB627728C15B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62BC1A1F-3DDC-4BD1-861C-8C4DBDBD8096}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27228271-29DF-4FE6-BA21-9BC5E3FE53AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE039751-85F2-4FE4-9147-FDB52152A69F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC1BEAF1-C4DF-4A32-8BF4-DDEDC202514B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A09267E7-E17F-495B-8C63-802EE5D1E613}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8352D8B-5563-46FF-9008-FA3F2C106555}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCABAD45-51D6-463E-AECB-2C624E07B196}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7EBDE6C2-283E-45AE-BA0E-5214847681E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25B5E090-3D9E-4E62-99D9-9AAC29CDDDEA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9273E01D-EBC5-4A2A-8AD8-F8E056BF6FBA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6843883-7321-4A52-8309-0037BF79D175}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ED7E2D85-A415-4D15-BDEE-9DA34BE0CAE0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DBCFC57-078D-4921-8FCB-7B578F13241D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8C540CD-C5D1-47E1-9648-DC94F5D6825A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC2BA310-D501-4DC3-9D77-13E9A8D0CA74}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39436877-EA60-46C5-9AFE-D787EFBAD248}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{023D5043-7204-4E35-AC51-13A563827299}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54C7E362-6B2F-4DF1-9AEA-7E028C8861B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2D15A61-74A3-4AAD-B29D-E7627D7A0A27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F68361B-6AF8-4404-ABBD-5BA85F6A49A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{984F7708-5390-4ACD-AD71-5967E1D4D440}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E632F160-9A2A-4BB3-A405-C8C1B072738D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACECBEC0-FA28-4F37-94B7-6960DFAF6F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9754BB-A2BA-4640-89E9-2159643E7F4F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3845,17 +3845,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{623EE277-2482-405A-B48E-F8101E9D8E93}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F6B8D91-23DF-4F0D-B44F-4824EB4F1D2F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42173F1F-2586-48BD-88E5-B086791C3AEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28C4BC82-4F64-42E4-8DEB-63BA99EFF5C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C94B7EB5-6014-47FC-A903-BB38D193F195}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69ED4595-46E6-46F4-8CAD-7B7DB9485C98}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACEDEDD0-18C9-4E74-ABD5-1025694F57FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85403EF4-77EE-44DC-A727-BCAF0770114B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3825467C-698C-484B-ACC0-0643C45530F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{293D93B0-91DD-4DB0-8BB6-FAA315368634}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2FCAD2DE-FFD8-44E8-B6F1-AA4C19BEBA51}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD96EE92-9683-4D33-A82C-D4547D7EC061}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B21F9B5B-1CE7-4B26-AC6C-61FD3A283081}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4724210-EDA4-40AC-85E4-562CBC722778}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B457E1A8-2D9A-49E6-909A-F6831BADD859}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF4E08DC-9C52-45EF-A0EE-4A38D44464D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBE4CD5B-8434-4B4D-975B-2D4278F8F131}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD8B8EE2-C168-43BE-A10E-C97323C886D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01EF66A1-6429-4A12-98C3-539F0F5579BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9D6E394-DFEB-4AD1-8766-F00B84797B7E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0DD59F8-FDBE-4F6D-96F8-7376EC3271B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28F9D42F-D260-483A-99DF-1CAF6C40536E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3868,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A872B-1833-412B-9EEC-9D429C5052A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88167D6-91D5-4550-B2EA-BB879FD85FE7}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5100,18 +5100,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F125D1F-9697-4901-ADFD-88F1DE5ACAC7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41572F77-F29C-489E-B3D8-39BF762D2240}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{30D51FF9-7462-48E1-B84C-62649F986496}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD3F5BB0-1F51-45C7-AF52-43433D0E13AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2FF9FD3-D4C2-48F0-BE45-080AA356247C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63ACA725-B3B0-435A-BA64-40B12FC6F20C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA0B727C-D2A5-4458-8B9E-57C8DC4E0787}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB499605-250C-4969-9798-6FE7AFCFED37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E826DD4-3F30-451D-858E-483075401E58}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{598A2FAE-1E96-4B85-819F-81E6EAD4D7D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27DE8167-B636-46B1-AE6B-DA8BB396FF86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C41D982D-7CE8-4727-BE96-483E02B0F685}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31149415-2E57-4571-A930-D55332BC29A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D392FA20-8A4B-4C2D-AE3A-5F05235F8DAE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{10642418-A621-4D35-A6BA-A9C7BE3F9449}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21662DFD-CDD6-4993-A73D-0830A1469B24}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58FAC55B-A884-487F-9202-9D8238D0A5D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0C2CEB7-F584-4729-B93A-406B5BA1DF18}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AA7AEC1-B0AD-4DA3-B6E2-F11357AF8E7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E5723D8-ED78-4523-A347-79126CBD2C8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C1816D7-A5EC-4C90-B8AF-8CDD0F8F4BEE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D5EE7CC-486C-4085-AF3C-405FD979FEE4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3351B80B-E123-4B36-9659-FCFA36FA4E03}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2035C12-A005-43A4-A6AC-7A4BECA07F6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5124,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E083CAA-448C-4903-BCFC-1DCB063BB666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7FC4B5-8BEE-4BA4-89E6-E132E3204149}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6356,18 +6356,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B1C56B2-C1C8-4AFB-8BE0-B865F5C5E12C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BB60E47-9E7B-4F0C-8C53-8D67AFF4EC80}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDF4CC31-3E0C-45AC-A9A3-F96A81F10F0D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{746E73A1-F400-464B-B0F3-D13FD5D2816D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1E75D74-3E6C-44F3-B5CA-4D23FFDD5566}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC202D02-5D3F-478E-999B-D57EA5109394}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{798BF5B9-674F-4F5D-BEB6-7740EDD6F5AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9BC277A-844D-412F-B278-ECEA96CD9310}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77ABFB60-F593-44CC-BFF7-EC9C6389C8E2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{862A7562-A4E3-4E0C-B252-B00ED603ABA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B29EEB8-AFBA-4F82-BCAE-11EFF178ADE0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0CFC841-0D58-4754-A8AA-78198573195D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04EAA993-28D6-4A30-AFCD-6A8DBC5D1792}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12A68C11-2A8E-4A27-9BCF-6AC086F79126}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9AA01F77-787A-45E0-B175-62039B3B1409}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DCE66B40-93C1-4FB7-A202-DD0C320759AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5C280D6-5672-4C78-ABA0-3ED97DAB5254}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03F00622-6241-4A86-9EF1-BD5AA508F259}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D47DD0B-D1C8-48FB-8173-59FCE0BB6E69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71F1B430-24B0-49B0-AC5F-DBDEF858F382}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{855F5CE0-1D54-48E4-B084-F8D60D18B47F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{080CC72A-E753-47D9-9222-F1128EC3E5A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5C8F09D-6441-47EF-A7AB-512B86EF9503}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0302378B-5664-460E-84FB-950D70886816}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6380,7 +6380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8530432-57EF-4CAC-B6A4-2A8CC1B0E71B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57378F62-A1A2-42AF-AA31-4895D4547D81}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7641,18 +7641,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59B97917-FC95-468C-A5F5-57D80BCFD711}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20451310-64DB-4B84-B886-E8527F16ABD3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2ACF339-3489-4EED-AA8A-E5FC80DCB590}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3A3D0EF-2652-4BAE-B762-CE600E86C658}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{885276E5-C03D-4F76-82B7-02CFCC5EB13C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A94D87B-3603-4780-A500-3466876D8C5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2757DB4-0395-47AA-883D-A125FD6D61A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C349DF1-DF24-4807-88E6-002F835406EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2E49973-A57D-451A-B1DC-49304E806142}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3E5A0A5-9184-4907-97F0-7F74521E68AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EF62CA0-3BD7-45A3-B984-43CB1130B7CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A283E8F-2A4A-4B29-BBA3-A194D4B8F80D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F90842F-7442-4758-9B68-B01C76A57852}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EA2B9FB-0FEB-4385-B226-D3324830B789}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3886577D-9B4F-423D-AF9F-DC14569A368D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7233D0C1-6A5B-4669-A48A-4097A328D445}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39A0C09F-4218-4F51-A728-A4E3DE7380C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37771690-A71B-4011-BB7C-7869710B5446}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EE2F1EF-C8F0-4648-8F82-08293432D65C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EFCA6C5-A31B-449E-91FF-EB022C9ED0DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7137C0FF-4CEB-4786-8A1C-546E73743EF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89957299-2F5D-4C24-9020-C01068167FD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EA24812-4F08-466A-8333-12C2C31AB4B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81A00C36-8BB0-4FE4-BA74-079FB765765C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7665,7 +7665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF29958-DFE0-47E4-AE99-8193B7765129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE74F1B5-6E8B-409D-A9C0-BFC41AF940D1}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8923,18 +8923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06E48B13-BE34-4202-A8B1-577120E4789F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2CD07B9-AE60-4D85-8FDE-7E0AEF7FE328}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A8CA0AD9-572C-4882-A398-F6C6D6342301}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BF0798A-733B-45D9-A5A2-2471E58D4689}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A79DF1F-D259-4933-8D07-F107525E8312}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AE20828-3DF5-4B99-947E-69C0A1B7FFCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43E80E9C-8D3D-4EE9-90D4-C979BC678CDF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{574EB665-384F-40E5-BA45-E0725FBC40B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{815E4A7F-DC52-4F7D-BF9A-5AE2B0AEBA89}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{571B29A6-8EF4-4F09-AADB-5CBB34235BA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AC99F77-2616-47E1-8891-34493F08FF43}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{002A0197-C1B0-45EF-92AD-7C7010DF642E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D67D9EEF-1A0D-4672-B7F7-220B5BA505D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB8FCB03-82AE-4C71-A4EF-4686AC00A1B5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F1CC8CB0-6458-4B13-A2BC-41457B54626F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{332D3770-8175-4A84-BA42-F8FA43357F5B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB33A3EF-8572-496B-B427-19255B704C94}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A191285-7B88-45D2-A928-07C82F92EE5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52E6CACD-1928-4E26-A14F-5FE50682B6DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A805A0A4-3039-430B-918C-5A301FCB7BED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52F10C61-3A91-435E-84AB-966AFDA699AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{992B1186-914B-455F-AE0E-6D02B0EE833A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC1937A0-8457-4CC2-BB7A-E1BEEEB7DD65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{980EE760-F6FC-489B-923A-869138A468FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8947,7 +8947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6CEBE3-744D-49F2-A5F9-4A37E9DA934F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DEC128-E95E-47B4-A8C6-4D98D9FCC946}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10205,18 +10205,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11D3E6A1-8C52-4A1A-9CD2-2547D57291F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4937FAB-5665-46CD-8BF7-B22CBFB16C51}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{17120CC9-ACB8-4015-87CA-45B758AABFB5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C90AE6C0-1F1A-4BF1-8615-F21305385899}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{485BB80F-8C0F-4420-AAFB-AE58411140CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E57B21D2-5E73-4271-AD22-35D776078839}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A942F9A-028A-4E5D-A0C2-41D3548CC4F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADC0705B-D1D8-4D66-9886-6656CD863690}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A71E44E-08C0-41A0-A227-8C6DCB438283}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC23BB58-B277-4A20-8745-B9213312CDD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E7D6F38-FE8D-466C-93C5-B9E0E56361CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FC3DC13-3588-4D73-A630-67CC8C726B0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A5B57C8-4F6D-484B-8F2A-A6661C7BA72A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0B150BF-BF5B-4627-8BF7-119CBF00D123}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BF7033DD-E9A6-4A2D-BFA3-BBBD7C1B3D79}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0187674E-3924-40A2-A7F9-0F4CA21A3A44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDE05311-24DD-4E7F-8271-389D4CE32577}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B592F39D-5E91-4153-BAED-636F94230A2F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77D849D3-435B-4592-BB6F-9DF2BA5F751F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46C36854-7F08-440D-8B4E-323480836EC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CE394F5-8DB7-45B4-BCA5-2F219FDD44EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FABE329-6B2D-4F3B-A4DD-C76AE3548945}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5388015B-A34D-4B5D-8EEF-E16EE39B37A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD333171-7377-4967-BB06-274EEB313D61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10229,7 +10229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C9416-4597-4972-B5F5-25968E7CDF18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2F1D8A-E9C6-42D3-9ACC-B9CBB14103C7}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11487,18 +11487,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{324AEE20-F5C4-49A0-B66E-66F27AEA91A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B34E48D8-BAE0-4B62-A5C0-193D63D980AA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5D228A5-7D9E-42B8-A165-A393097288C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2A77D28-0A1B-497F-BC7D-87FF68DDB27D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B60C24B-DC04-41DC-AF2A-FC34261F1E65}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2F53BEB-13BA-4CEC-A27F-91088C9E8418}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6147BA69-5B8E-4F34-A8B9-EB2ED0E14F90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{245EEC56-BA57-4336-B8BF-91560AB4C0ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19E82F9E-C41A-492D-B343-2F3AE7AE14CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0ED07EEB-BB01-414E-83EA-885CBDFFEE40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2621741D-4D84-4996-B99F-5BC09CD03309}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70CE56CE-6AC2-41D2-A762-F46F04066256}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7528D64D-C912-4DD4-8BAF-639E5CBD4915}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{362D52B4-E4AE-4B10-BB90-3709358241FF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AFB4FCC-CFAF-4351-87B0-6A0941078C11}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFB2A9D9-25E9-42BB-92D2-9CE9AAF3D519}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BB8C5D8-D7E1-43BB-B809-07BC28BD10CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1EB28832-E200-45B7-A023-CA972BBF7203}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D508242C-A6D6-4966-8F59-02062388B2FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{061083B4-81A4-47A3-8029-B06FFDC430B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D379F21D-C604-4F55-ABFA-9F6D18FD4F80}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EFFC57C-4E1C-4652-8CE9-843CF07A5306}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1818EF7-DC12-4E68-AB88-D3B76A2AA39C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52C41FEE-2352-494D-B112-37BC37281D0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11511,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EE3559-F034-421F-ACF2-867ED8550AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08777997-073D-4AA8-904E-C0345B500AA6}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12755,18 +12755,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21889EE6-D46A-491D-A41B-478911197653}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{497D5B82-B57C-4CB3-B7E1-93BC17752CD8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67A7B09D-6EF4-4CC9-83D0-1A5EB90747B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{402A06EF-EFE0-48C7-B26D-BEEBF01F8059}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB529432-5A13-480E-8C92-32C10C6E6C67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA09434A-2BD6-4280-B93A-6D08E16094F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29778F2B-344F-4E37-961C-78F23D13DE37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D45BD98-5835-4AB7-9D19-B04C903CB38A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FEFDB3A4-853F-4DBE-BA65-10566F960225}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F21D768C-EB88-4D32-9AFA-C00694CE02F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C774D7AB-6FFC-43A9-A1E5-8F496FD9AD63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{641BD6DF-4DE1-4F7E-B4D6-6340199BEC80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43598FEC-623D-4121-A5E8-9A1EC27944FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C3C32F6-1F9C-41F0-BF93-CC7556FDA813}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{569ACFA5-7902-4299-8E95-515CF93E65C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18E1B42B-F11D-493C-B30A-91AA1D21F080}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2298188E-FDCD-4A67-A3DB-30B3E97DD1BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A5E4DF1-4899-40AC-9E16-6E0ECE8EAA1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F58E736-CE50-475C-BF04-9255E4445933}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA0A323E-B507-45A4-B090-25AA20F74765}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74C6CB95-F998-4DC4-AEF9-6A9C47C60E77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13B47AE6-F8F8-4108-9343-F1716D91542F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{136A46D3-94D6-4B37-9D52-3F7D2CA7E2D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF4C40A2-85A4-4C86-AE51-75F1BA41ABC2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12779,7 +12779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FE946-DB2E-410B-BCB1-CB72591EDEA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4263B74A-AEF1-42D2-8D0D-12039A5D893C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14029,18 +14029,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48DF291A-7B1C-4C74-9D62-FC30689FBA46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D5096B8-44DA-4C8F-8405-D244591BF483}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13B26236-6B54-4DF3-A1F6-00689AEA9FCB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8ABD105E-5445-4045-8117-775A2760972B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C1D29A3-4851-4841-A769-C16BD5BAF7E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CD0F2F2-142C-4430-9465-C514B98A94BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FA4B4A3-619A-433E-9C10-DAA9B1E1DA25}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAB2ECDC-B103-4B7C-AC11-6A84E2CA4C49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{116A0601-7081-48E8-AEFB-79908537762F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2DA832F-5FBC-4EB8-917E-C8445117FF0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F59564DA-38DD-4FAA-9280-34EF1EF0A0E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93A2D8F8-1DF0-42FC-992D-BF363B158DED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9889660D-1958-4D9C-A80B-57C6C4AE8451}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F3FB91A-4A1E-43F3-8A2E-642498F0D62E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA7E1405-B9BB-4F24-9372-D85E6A093A19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D077CF73-AC06-469A-AEC9-8B6ED0A38256}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9093C277-D308-48C3-A72D-F77D35FF5695}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{837531DB-83AE-4CCB-A77A-BAE9794B4505}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C50FB26A-9DD0-47AD-82F8-20492636B7D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84924C51-545D-44B8-AD2B-1FABB58C983F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0C0FC74-CAFD-4363-83DA-1905A0C34494}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F69213D-D3E5-404F-87BC-ED693F86B796}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7847DAA3-DF05-4A2D-87A1-C11EF39FC42F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF9F8D74-5E80-4761-B567-0C08041A3C42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14053,7 +14053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5C11AB-06A8-4222-B8ED-A6052C66878D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3059FDA-5979-493A-9661-60E6F0C7E595}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15297,18 +15297,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98DE61E2-3194-4339-BEB8-C917607169A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C022204F-80D4-468B-843D-E4F78FA76271}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9324A06B-2025-4B36-89B4-3CAEBBE2A30D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35C74772-A66C-4165-9002-50D74828DAD0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D822714-A4DC-440A-B373-65C9C8A4D950}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E78F88AA-BDB7-413E-BA0A-2A02ECCB9ECA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93DFCC25-B5BD-49A4-A2B4-811977DA7D9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92CA2A5A-B26A-4D22-99A4-8E79CD3AE653}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E973B5DB-A7BC-465B-8EAB-D4A8417A574B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6ACC8EC0-5933-40EA-A0F6-0D1CFD28EFE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47B77C98-5C7C-4943-A5D9-625BBB7CDCD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27303024-CCAD-4C0B-9EF0-CD41B72BB809}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{777FF731-F7CB-4C74-B207-6616385C9CBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EDD2B23-FC1B-4FED-99E1-AE0B12915EAB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F5B44DA-B93A-4A89-973D-C548DDDF48B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{415DE491-1064-483A-B614-28FC735D57B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{125E64DB-28CF-4ACC-88F4-B503A0402091}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6A95EBF-A17E-4FA6-85B3-13E533286068}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31BB1CC9-53CD-47E5-A749-3617F0E247FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2A77386-F61E-4360-A1A0-FD88F0BE4B4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CDB10DD-F57B-43EB-ADF1-C1F75C2EA41B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62BB86F8-553B-48AF-82D8-B872DBBCA040}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{788C744E-BFD6-4C8B-B8C8-A521B90126C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E3DA01F-9644-45EB-92E7-23D69C3B8E83}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15321,7 +15321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BD3FC1-9AC4-4027-9466-D515E5097F60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA014FF-018F-4082-B85D-349B0862C91F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16565,17 +16565,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62A1DA66-D17E-4433-8E27-FC83759BAE5A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28FE9B9B-6D76-4B7A-87BE-996F57C6D468}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0553F325-42DC-4EF1-8352-908A37AC9E25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D897FE61-B68F-420D-8252-DB9EF2F9B95C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD53FF61-1111-405A-A6C0-47E0AE438624}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03A9FD04-9DBC-4D57-B5E2-B41F0162B5E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EBFADAC-A3CA-49E6-9ED6-B5F290303951}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F20B9F16-7926-47D7-A4C8-CCFFBAAAD225}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83C0FBF9-191B-428F-BB4C-5F76DD804B4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E04DB845-CC15-461B-A054-2F1449F44E4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6FE1EAE-FEE3-43F2-8379-663A2847EC0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{370501CA-B2E1-48AD-9E50-B787548F1D86}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FA4A52F-ED5E-4C09-B08B-A5FAB4D4C7AD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A63086C5-CA33-46FE-AB68-11500BD077B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F3E89BB-9ACE-48FD-9E4A-D7E421454D8E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C49613ED-3D6C-4F8A-8BB2-4282AA7E2BF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8D7764C-C1E1-4F51-B51E-920A296D7AD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{880EEED3-EA73-44D5-8CAE-94E366DFD3EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BFCC527-040B-4E11-8CC8-F5DC020A11EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3D1E639-606D-4DD3-A5D4-78A8E7B3268D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06C33BE8-BC32-42C2-A752-7798FE1AD772}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2492ED07-8A4A-41F2-842D-92F924418F28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
